--- a/zoom_meets.xlsx
+++ b/zoom_meets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEIL\PycharmProjects\zoom_auto_join\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E47DEE0-4158-445D-B9E1-1F859B38439D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665B0DA5-1611-47F9-87B8-F84A16B255EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25890" yWindow="10245" windowWidth="21600" windowHeight="11430" xr2:uid="{7AD01A05-5E8D-4C8E-B311-F48B5E90C4B6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>meet_name</t>
   </si>
@@ -71,23 +71,49 @@
     <t>STSWENG</t>
   </si>
   <si>
-    <t>zoom.com/a</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>https://zoom.us/j/92292806300?pwd=eVlrSDdNYlFobmh0bUtTSHZDeTREdz09</t>
+  </si>
+  <si>
+    <t>zoom.com/GAMEDES</t>
+  </si>
+  <si>
+    <t>zoom.com/CSARCH2</t>
+  </si>
+  <si>
+    <t>zoom.com/LBYARCH</t>
+  </si>
+  <si>
+    <t>zoom.com/STADVDB</t>
+  </si>
+  <si>
+    <t>zoom.com/GERPHIS</t>
+  </si>
+  <si>
+    <t>zoom.com/STSWENG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -110,14 +136,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -430,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE44C1D8-7733-41EE-853E-4612E019FA0B}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -456,14 +485,14 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.53125</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -471,13 +500,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
         <v>0.53125</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -485,13 +514,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1">
         <v>0.53125</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -499,13 +528,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
         <v>0.53125</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -513,13 +542,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <v>0.53125</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -527,13 +556,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1">
         <v>0.53125</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -541,16 +570,27 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1">
         <v>0.53125</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{3CE906BF-9D4D-4E51-9B80-C1D7CADE2EF1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/zoom_meets.xlsx
+++ b/zoom_meets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEIL\PycharmProjects\zoom_auto_join\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665B0DA5-1611-47F9-87B8-F84A16B255EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020AA535-96AA-4FE5-B84F-236C06C2CB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25890" yWindow="10245" windowWidth="21600" windowHeight="11430" xr2:uid="{7AD01A05-5E8D-4C8E-B311-F48B5E90C4B6}"/>
+    <workbookView xWindow="1972" yWindow="1448" windowWidth="8356" windowHeight="7792" xr2:uid="{7AD01A05-5E8D-4C8E-B311-F48B5E90C4B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>meet_name</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>zoom.com/STSWENG</t>
+  </si>
+  <si>
+    <t>T Th</t>
+  </si>
+  <si>
+    <t>T F</t>
   </si>
 </sst>
 </file>
@@ -462,7 +468,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -562,7 +568,7 @@
         <v>0.53125</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -576,7 +582,7 @@
         <v>0.53125</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
